--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(U)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(U).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(U)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(U).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ule
-Uleanthus
+          <t>Ule</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Uleanthus
 Ulex - fam. Fabacées
-Ulex europaeus - Ajonc d'Europe
-Ulm
-Ulmus - fam. Ulmacées
+Ulex europaeus - Ajonc d'Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ul</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulmus - fam. Ulmacées
 Ulmus americana - Orme d'Amérique
 Ulmus glabra - Orme glabre ou « Orme montagnard »
 Ulmus laevis - Orme lisse ou « Orme pédonculé » ou « Orme blanc »
@@ -527,46 +578,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Um</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Umb
-Umbilicus
-Umbilicus rupestris - Ombilic de Vénus ou « Ombilic des rochers »
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,14 +599,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Un</t>
+          <t>Um</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uni
-Uniola
-Uniola latifolia
+          <t>Umb</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Umbilicus
+Umbilicus rupestris - Ombilic de Vénus ou « Ombilic des rochers »
 </t>
         </is>
       </c>
@@ -599,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,50 +637,132 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Un</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Uni</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniola
+Uniola latifolia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uro
-Urosperma
-Urosperma dalechampsi - Urosperme de Daléchamps
-Urt
-Urtica - fam. Urticacées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Uro</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Urosperma
+Urosperma dalechampsi - Urosperme de Daléchamps</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Urt</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urtica - fam. Urticacées
 Urtica dioica - Grande ortie ou « Ortie dioïque »
 Urtica urens - Ortie brûlante ou « Petite ortie »
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(U)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(U)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utr
-Utricularia - fam. Lentibulariacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Utr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utricularia - fam. Lentibulariacées
 Utricularia australis - Utriculaire négligée
 Utricularia bremii - Utriculaire de Bremi
 Utricularia geminiscapa
